--- a/基本設計/基本設計書.xlsx
+++ b/基本設計/基本設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mokor\OneDrive\デスクトップ\D.I.works\P演_Debug\設計\【実習】各種設計書（テンプレ）\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0913A33-75F3-4263-BA36-21844659E7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FCB7C1-8054-45B8-9060-C6DF6882ED33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="-1125" windowWidth="14610" windowHeight="15585" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -67,6 +67,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="12">削除確認画面!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1505,8 +1516,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7429500" y="165100"/>
-          <a:ext cx="1555750" cy="171450"/>
+          <a:off x="7429500" y="161925"/>
+          <a:ext cx="1552575" cy="171450"/>
           <a:chOff x="733" y="95"/>
           <a:chExt cx="180" cy="17"/>
         </a:xfrm>
@@ -8509,8 +8520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76057F4-0446-4AB3-AE54-8438C17155E5}">
   <dimension ref="A1:FA41"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -8527,7 +8538,8 @@
     <col min="11" max="11" width="10.26953125" style="36" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.26953125" style="36" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.90625" style="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4" style="36" customWidth="1"/>
+    <col min="15" max="15" width="6.08984375" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4" style="36" customWidth="1"/>
     <col min="18" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
@@ -9489,11 +9501,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B6:P7"/>
-    <mergeCell ref="B39:P40"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L15:M15"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:K2"/>
@@ -9501,6 +9508,11 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B6:P7"/>
+    <mergeCell ref="B39:P40"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9516,7 +9528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E310E5-4881-4A27-A1AE-3DDC448F9AF8}">
   <dimension ref="A1:FA41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -11046,11 +11058,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B6:K7"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="B37:K38"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="H33:I34"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:K2"/>
@@ -11058,6 +11065,11 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:K7"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="B37:K38"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="H33:I34"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11073,7 +11085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879F261F-744E-4D32-B3AF-2842FE52D954}">
   <dimension ref="A1:FA41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -12683,7 +12695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DF6E88-7467-416C-AF8A-BDDF47ADFE99}">
   <dimension ref="A1:FA41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -14237,7 +14249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5703A5-AA1E-4E5C-9E6C-4D0A09073023}">
   <dimension ref="A1:FS42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
@@ -22157,7 +22169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FA41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="G23" sqref="G23:H23"/>
     </sheetView>
   </sheetViews>
@@ -23015,7 +23027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726F7A0A-2761-470F-B2BC-5774BEB59C8B}">
   <dimension ref="A1:FA41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="G11" sqref="G11:I11"/>
     </sheetView>
   </sheetViews>
@@ -23815,7 +23827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F73531-BC72-4BFB-8D1D-05566E2D339A}">
   <dimension ref="A1:FA41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
